--- a/burgalossi_data.xlsx
+++ b/burgalossi_data.xlsx
@@ -1133,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1391,7 +1391,9 @@
       <c r="R4" s="51">
         <v>333.8</v>
       </c>
-      <c r="S4" s="51"/>
+      <c r="S4" s="51">
+        <v>0</v>
+      </c>
       <c r="T4" s="50">
         <v>1</v>
       </c>
@@ -1463,7 +1465,9 @@
       <c r="R5" s="51">
         <v>288</v>
       </c>
-      <c r="S5" s="51"/>
+      <c r="S5" s="51">
+        <v>0</v>
+      </c>
       <c r="T5" s="50">
         <v>1</v>
       </c>
@@ -1535,7 +1539,9 @@
       <c r="R6" s="51">
         <v>75.7</v>
       </c>
-      <c r="S6" s="51"/>
+      <c r="S6" s="51">
+        <v>0</v>
+      </c>
       <c r="T6" s="50">
         <v>2</v>
       </c>
@@ -1607,7 +1613,9 @@
       <c r="R7" s="51">
         <v>462</v>
       </c>
-      <c r="S7" s="51"/>
+      <c r="S7" s="51">
+        <v>0</v>
+      </c>
       <c r="T7" s="50">
         <v>1</v>
       </c>
@@ -1679,7 +1687,9 @@
       <c r="R8" s="51">
         <v>389.9</v>
       </c>
-      <c r="S8" s="51"/>
+      <c r="S8" s="51">
+        <v>0</v>
+      </c>
       <c r="T8" s="50">
         <v>1</v>
       </c>
@@ -1802,8 +1812,12 @@
       <c r="Q10" s="21">
         <v>158.5</v>
       </c>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
+      <c r="R10" s="21">
+        <v>0</v>
+      </c>
+      <c r="S10" s="21">
+        <v>0</v>
+      </c>
       <c r="T10" s="7">
         <v>4</v>
       </c>
@@ -1862,8 +1876,12 @@
       <c r="Q11" s="21">
         <v>178.4</v>
       </c>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
+      <c r="R11" s="21">
+        <v>0</v>
+      </c>
+      <c r="S11" s="21">
+        <v>0</v>
+      </c>
       <c r="T11" s="7">
         <v>3</v>
       </c>
@@ -1920,8 +1938,12 @@
         <v>1044.5</v>
       </c>
       <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
+      <c r="R12" s="21">
+        <v>0</v>
+      </c>
+      <c r="S12" s="21">
+        <v>0</v>
+      </c>
       <c r="T12" s="12">
         <v>2</v>
       </c>
@@ -1980,8 +2002,12 @@
       <c r="Q13" s="21">
         <v>607</v>
       </c>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
+      <c r="R13" s="21">
+        <v>0</v>
+      </c>
+      <c r="S13" s="21">
+        <v>0</v>
+      </c>
       <c r="T13" s="12">
         <v>2</v>
       </c>
@@ -2104,8 +2130,12 @@
       <c r="Q15" s="25">
         <v>444.8</v>
       </c>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
+      <c r="R15" s="25">
+        <v>0</v>
+      </c>
+      <c r="S15" s="25">
+        <v>0</v>
+      </c>
       <c r="T15" s="17">
         <v>1</v>
       </c>

--- a/burgalossi_data.xlsx
+++ b/burgalossi_data.xlsx
@@ -1134,7 +1134,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1937,7 +1937,9 @@
       <c r="P12" s="21">
         <v>1044.5</v>
       </c>
-      <c r="Q12" s="21"/>
+      <c r="Q12" s="21">
+        <v>0</v>
+      </c>
       <c r="R12" s="21">
         <v>0</v>
       </c>
